--- a/downloads/format_oscrms_ms2.xlsx
+++ b/downloads/format_oscrms_ms2.xlsx
@@ -968,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
